--- a/Excels/data/2020.xlsx
+++ b/Excels/data/2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D7EEBD-1BCD-41EC-B334-F23965D4C124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBCB624-F74B-4DED-93E1-C5753ECCF325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="16200" windowHeight="9360" activeTab="3" xr2:uid="{C38854DC-3170-4FB8-9C02-D87802550008}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18075" windowHeight="12255" activeTab="2" xr2:uid="{C38854DC-3170-4FB8-9C02-D87802550008}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="223">
   <si>
     <t>Round</t>
   </si>
@@ -773,6 +773,12 @@
   </si>
   <si>
     <t>riders</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -827,23 +833,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="30">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -926,6 +929,12 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -993,8 +1002,8 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="5" xr16:uid="{3935B42C-12C8-4573-8BF1-DAB95B10AF7F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="10" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Team" tableColumnId="1"/>
       <queryTableField id="2" name="Constructor" tableColumnId="2"/>
       <queryTableField id="3" name="Motorcycle" tableColumnId="3"/>
@@ -1002,6 +1011,7 @@
       <queryTableField id="4" name="No." tableColumnId="4"/>
       <queryTableField id="5" name="Rider" tableColumnId="5"/>
       <queryTableField id="6" name="Rounds" tableColumnId="6"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="7"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="Column7"/>
@@ -1020,9 +1030,9 @@
   <autoFilter ref="A1:E15" xr:uid="{5CC3E593-2B62-4069-8BB6-D141D5A6799C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7741BABC-62C5-4BDC-8BA1-93934A69B408}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1492691B-50B4-469E-8ADE-17BC21969457}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{7054D31A-1A6C-4E81-917B-D31FEDD6734C}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{781C4DC5-8FA3-4D9F-9BD7-BC67CE6406A2}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{1492691B-50B4-469E-8ADE-17BC21969457}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{7054D31A-1A6C-4E81-917B-D31FEDD6734C}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{781C4DC5-8FA3-4D9F-9BD7-BC67CE6406A2}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="27"/>
     <tableColumn id="5" xr3:uid="{2B3B2A1F-5A9B-40C9-9F8C-C74C6A03E2DB}" uniqueName="5" name="Location" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1033,41 +1043,42 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{290ED69C-DB45-4EE0-9E88-649A2D30ADC7}" name="Table_5" displayName="Table_5" ref="A1:S29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:S29" xr:uid="{290ED69C-DB45-4EE0-9E88-649A2D30ADC7}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{8F730454-E108-444D-AF1B-4E18EF495DC3}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{706BDCC8-0CF6-4D3A-A15D-2070996DF752}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{C25A9CEB-493F-459A-8CEC-3C57832827FC}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{0DD49009-7FD2-4052-A746-D701764D7BD6}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{04441F05-F1F4-4D12-B645-AFF163711E31}" uniqueName="5" name="SPA" queryTableFieldId="5" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{DECF70B3-FD34-4EE0-BA36-B0232E3480A8}" uniqueName="6" name="ANC" queryTableFieldId="6" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{1B52AADA-9514-4650-8E28-800A83B34D0A}" uniqueName="7" name="CZE" queryTableFieldId="7" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{8CF7E0AC-BCAF-4CD4-BCEC-BCC603F041E9}" uniqueName="8" name="AUT" queryTableFieldId="8" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{47D802E1-728A-4BAF-97D3-E00448C58117}" uniqueName="9" name="STY" queryTableFieldId="9" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{548B0E6C-2AFC-4856-BF3C-C0F5A0BC396E}" uniqueName="10" name="RSM" queryTableFieldId="10" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{B6E139D2-9907-4CD8-889E-53B2FCE9D966}" uniqueName="11" name="EMI" queryTableFieldId="11" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{6C5D832C-B521-414A-93FF-96ADB5F91CF3}" uniqueName="12" name="CAT" queryTableFieldId="12" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{7FC03D3D-EB58-45A3-A025-54B300EBA723}" uniqueName="13" name="FRA" queryTableFieldId="13" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{E90B544A-F600-477D-BBF0-AD18BB0C66A7}" uniqueName="14" name="ARA" queryTableFieldId="14" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{EC21F882-B7F2-4C08-B063-9823892405F4}" uniqueName="15" name="TER" queryTableFieldId="15" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{BCE0B9A1-D127-4897-9FBD-ED21500DE1E6}" uniqueName="16" name="EUR" queryTableFieldId="16" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{92D232FC-8E77-4343-AE63-451AE1518169}" uniqueName="17" name="VAL" queryTableFieldId="17" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{7B92459B-421D-459B-A933-478E2868D8F9}" uniqueName="18" name="POR" queryTableFieldId="18" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{A0FAF8EF-E71B-4AD0-AEAC-EBE155A1FEF8}" uniqueName="19" name="Pts" queryTableFieldId="19" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{8F730454-E108-444D-AF1B-4E18EF495DC3}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{706BDCC8-0CF6-4D3A-A15D-2070996DF752}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{C25A9CEB-493F-459A-8CEC-3C57832827FC}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{0DD49009-7FD2-4052-A746-D701764D7BD6}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{04441F05-F1F4-4D12-B645-AFF163711E31}" uniqueName="5" name="SPA" queryTableFieldId="5" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{DECF70B3-FD34-4EE0-BA36-B0232E3480A8}" uniqueName="6" name="ANC" queryTableFieldId="6" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{1B52AADA-9514-4650-8E28-800A83B34D0A}" uniqueName="7" name="CZE" queryTableFieldId="7" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{8CF7E0AC-BCAF-4CD4-BCEC-BCC603F041E9}" uniqueName="8" name="AUT" queryTableFieldId="8" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{47D802E1-728A-4BAF-97D3-E00448C58117}" uniqueName="9" name="STY" queryTableFieldId="9" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{548B0E6C-2AFC-4856-BF3C-C0F5A0BC396E}" uniqueName="10" name="RSM" queryTableFieldId="10" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{B6E139D2-9907-4CD8-889E-53B2FCE9D966}" uniqueName="11" name="EMI" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{6C5D832C-B521-414A-93FF-96ADB5F91CF3}" uniqueName="12" name="CAT" queryTableFieldId="12" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{7FC03D3D-EB58-45A3-A025-54B300EBA723}" uniqueName="13" name="FRA" queryTableFieldId="13" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{E90B544A-F600-477D-BBF0-AD18BB0C66A7}" uniqueName="14" name="ARA" queryTableFieldId="14" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{EC21F882-B7F2-4C08-B063-9823892405F4}" uniqueName="15" name="TER" queryTableFieldId="15" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{BCE0B9A1-D127-4897-9FBD-ED21500DE1E6}" uniqueName="16" name="EUR" queryTableFieldId="16" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{92D232FC-8E77-4343-AE63-451AE1518169}" uniqueName="17" name="VAL" queryTableFieldId="17" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{7B92459B-421D-459B-A933-478E2868D8F9}" uniqueName="18" name="POR" queryTableFieldId="18" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{A0FAF8EF-E71B-4AD0-AEAC-EBE155A1FEF8}" uniqueName="19" name="Pts" queryTableFieldId="19" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{727EB0BD-1D78-4C8C-A074-5DE50418DA6F}" name="Table_0" displayName="Table_0" ref="A1:G29" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G29" xr:uid="{727EB0BD-1D78-4C8C-A074-5DE50418DA6F}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AB6C4C2B-4F0D-4C6D-BDEE-1CA661C2992C}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{7169D05E-96BD-4A9C-BDDE-3BED990F4B0E}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{B7113558-3AA4-4197-BA65-80CFB3EB38B7}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{2E87D600-08BF-4167-8707-F1B2CA8A74EC}" uniqueName="8" name="Tyres" queryTableFieldId="8" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{2DD35B14-F219-43CB-8D0D-1FB51A5BCC02}" uniqueName="4" name="No." queryTableFieldId="4" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{6B21E667-C219-4125-8D8A-2B7FA2A7B73B}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{C6635471-B6A3-430C-A61C-7FD02C0AB617}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{727EB0BD-1D78-4C8C-A074-5DE50418DA6F}" name="Table_0" displayName="Table_0" ref="A1:H29" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H29" xr:uid="{727EB0BD-1D78-4C8C-A074-5DE50418DA6F}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{AB6C4C2B-4F0D-4C6D-BDEE-1CA661C2992C}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7169D05E-96BD-4A9C-BDDE-3BED990F4B0E}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B7113558-3AA4-4197-BA65-80CFB3EB38B7}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{2E87D600-08BF-4167-8707-F1B2CA8A74EC}" uniqueName="8" name="Tyres" queryTableFieldId="8" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2DD35B14-F219-43CB-8D0D-1FB51A5BCC02}" uniqueName="4" name="No." queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6B21E667-C219-4125-8D8A-2B7FA2A7B73B}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C6635471-B6A3-430C-A61C-7FD02C0AB617}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A088CFB3-021C-498F-9AC9-63FE12A6E99C}" uniqueName="7" name="Class" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1406,13 +1417,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>197</v>
       </c>
       <c r="E2" t="s">
@@ -1423,13 +1434,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>197</v>
       </c>
       <c r="E3" t="s">
@@ -1440,13 +1451,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>199</v>
       </c>
       <c r="E4" t="s">
@@ -1457,13 +1468,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>201</v>
       </c>
       <c r="E5" t="s">
@@ -1474,13 +1485,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>201</v>
       </c>
       <c r="E6" t="s">
@@ -1491,13 +1502,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>203</v>
       </c>
       <c r="E7" t="s">
@@ -1508,13 +1519,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>203</v>
       </c>
       <c r="E8" t="s">
@@ -1525,13 +1536,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>205</v>
       </c>
       <c r="E9" t="s">
@@ -1542,13 +1553,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>207</v>
       </c>
       <c r="E10" t="s">
@@ -1559,13 +1570,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>209</v>
       </c>
       <c r="E11" t="s">
@@ -1576,13 +1587,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>209</v>
       </c>
       <c r="E12" t="s">
@@ -1593,13 +1604,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>211</v>
       </c>
       <c r="E13" t="s">
@@ -1610,13 +1621,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>211</v>
       </c>
       <c r="E14" t="s">
@@ -1627,13 +1638,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>213</v>
       </c>
       <c r="E15" t="s">
@@ -1650,7 +1661,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0229D1D7-3CE7-4228-AFAF-ADE8F403D690}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:R28"/>
@@ -1725,1468 +1736,1372 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>134</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="R2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>132</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>144</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>138</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>131</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>136</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>134</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>146</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>134</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" t="s">
         <v>147</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>146</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>146</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>70</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" t="s">
         <v>149</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>132</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="L6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>150</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>131</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>151</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" t="s">
         <v>152</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>139</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>142</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>131</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>147</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>142</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>133</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>146</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="K8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="O8" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" t="s">
         <v>154</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>138</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>156</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>157</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>146</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" t="s">
         <v>86</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="Q9" t="s">
+        <v>129</v>
+      </c>
+      <c r="R9" t="s">
         <v>86</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>133</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="L10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>159</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" t="s">
         <v>155</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>134</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>134</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>134</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" t="s">
         <v>162</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" t="s">
         <v>131</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="Q11" t="s">
+        <v>129</v>
+      </c>
+      <c r="R11" t="s">
         <v>53</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
         <v>133</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>133</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="O12" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12" t="s">
         <v>164</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>53</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="R12" t="s">
+        <v>129</v>
+      </c>
+      <c r="S12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>134</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>133</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>146</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>128</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>136</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>142</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" t="s">
         <v>142</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>136</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>159</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>136</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>133</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="s">
         <v>168</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>142</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R14" s="1" t="s">
+      <c r="Q14" t="s">
+        <v>129</v>
+      </c>
+      <c r="R14" t="s">
         <v>142</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>136</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>159</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>134</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>147</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" t="s">
         <v>130</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>130</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="O15" t="s">
+        <v>129</v>
+      </c>
+      <c r="P15" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" t="s">
         <v>159</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>41</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>131</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="K16" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" t="s">
         <v>99</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" t="s">
         <v>99</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>143</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>147</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+      <c r="N17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q17" t="s">
         <v>133</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S17" s="1" t="s">
+      <c r="R17" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>147</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="K18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" t="s">
         <v>86</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
         <v>147</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="O18" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>146</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>136</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>170</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>141</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>142</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" t="s">
+        <v>129</v>
+      </c>
+      <c r="N19" t="s">
         <v>146</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" t="s">
         <v>133</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+      <c r="P19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" t="s">
         <v>147</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" t="s">
         <v>147</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>174</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>170</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>174</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>174</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>141</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" t="s">
         <v>170</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" t="s">
         <v>146</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" t="s">
         <v>170</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" t="s">
         <v>99</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" t="s">
         <v>86</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" t="s">
         <v>134</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>86</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="K21" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" t="s">
         <v>86</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" t="s">
         <v>136</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" t="s">
         <v>86</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" t="s">
         <v>41</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" t="s">
         <v>177</v>
       </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1" t="s">
+      <c r="S21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>176</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>147</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>159</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="M22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N22" t="s">
         <v>176</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" t="s">
         <v>136</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1" t="s">
+      <c r="S22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="J23" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="M23" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" t="s">
         <v>86</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q23" s="1" t="s">
+      <c r="P23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" t="s">
         <v>170</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" t="s">
         <v>174</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
+      <c r="S24" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="s">
+      <c r="R25" t="s">
         <v>170</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q26" s="1" t="s">
+      <c r="P26" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q26" t="s">
         <v>174</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S26" s="1" t="s">
+      <c r="R26" t="s">
+        <v>129</v>
+      </c>
+      <c r="S26" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
+      <c r="S27" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1" t="s">
+      <c r="P28" t="s">
         <v>177</v>
       </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1" t="s">
+      <c r="S28" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3198,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C856B3C-B290-4212-93B0-54427ED02549}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,7 +3130,7 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3237,636 +3152,714 @@
       <c r="G1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="H9" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="H11" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>217</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>217</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="H14" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>217</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="H17" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>217</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>217</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="H20" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="H21" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="H22" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>217</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="H23" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>217</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="H24" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>217</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="H25" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>217</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="H26" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>217</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="H27" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>217</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="H28" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3880,7 +3873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C211D2-3DE2-40E3-B047-FD1876DFCF08}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -3970,1127 +3963,1127 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="O9" s="5" t="s">
+      <c r="N9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="O11" s="5" t="s">
+      <c r="N11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O14" s="4" t="s">
+      <c r="N14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N15" s="5" t="s">
+      <c r="L15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="H16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N17" s="5" t="s">
+      <c r="K17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="H18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N18" s="4" t="s">
+      <c r="L18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="J19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="M19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="O21" s="5"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="J22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="5" t="s">
+      <c r="G23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="J23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N23" s="5" t="s">
+      <c r="M23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N26" s="4" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
